--- a/nop-oauth/model/nop-oauth.orm.xlsx
+++ b/nop-oauth/model/nop-oauth.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-oauth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A026C-B613-4868-A993-301849811E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B0C15-593C-42F9-80C9-3B720961905F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="5" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="6" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="222">
   <si>
     <t>序号</t>
   </si>
@@ -189,9 +189,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -608,6 +605,199 @@
   </si>
   <si>
     <t>Token设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registered Client Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principle Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization Grant Type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization Scope</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization Code Value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization Code Issued At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization Code Expires At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization Code Meta</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Token Value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Token Issued At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Token Expires At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Token Meta Data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Token Type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Token Scope</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIDC ID Token Value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIDC ID Token Issued At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIDC ID Token Expires At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIDC ID Token Meta Data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh Token Value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh Token Issued At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh Token Expires At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh Token Meta Data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Code Value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Code Issued At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Code Expires At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Code Meta Data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device Code Value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device Code Issued At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device Code Expires At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device Code Meta Data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principal Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorities</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Settings</t>
+  </si>
+  <si>
+    <t>Token Settings</t>
+  </si>
+  <si>
+    <t>Client Id Issued At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Logout Redirect Uris</t>
+  </si>
+  <si>
+    <t>Client Secret</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Secret Expires At</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Authentication Method</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization Grant Types</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redirect Uris</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scopes</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,19 +1600,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,22 +1636,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1887,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1898,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1909,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1920,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1931,7 +2124,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1942,7 +2135,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -1953,7 +2146,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -1964,7 +2157,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -2420,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E77A959-E6CB-4CF6-975F-2F9B3C7B7337}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2444,89 +2637,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2550,24 +2743,24 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2627,22 +2820,24 @@
         <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="G8" s="9" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K8" s="7">
         <v>100</v>
@@ -2662,19 +2857,21 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="G9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K9" s="7">
         <v>100</v>
@@ -2694,19 +2891,21 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="G10" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K10" s="7">
         <v>200</v>
@@ -2726,19 +2925,21 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="G11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K11" s="7">
         <v>100</v>
@@ -2758,19 +2959,21 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="7">
         <v>1000</v>
@@ -2790,19 +2993,21 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="G13" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7">
         <v>65535</v>
@@ -2822,19 +3027,21 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7">
         <v>500</v>
@@ -2854,19 +3061,21 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K15" s="7">
         <v>65535</v>
@@ -2886,19 +3095,21 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="G16" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2916,19 +3127,21 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="G17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -2946,19 +3159,21 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="G18" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7">
         <v>65535</v>
@@ -2978,19 +3193,21 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="G19" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7">
         <v>65535</v>
@@ -3010,19 +3227,21 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="G20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -3040,19 +3259,21 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="G21" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -3070,19 +3291,21 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7">
         <v>65535</v>
@@ -3102,19 +3325,21 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="G23" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23" s="7">
         <v>100</v>
@@ -3134,19 +3359,21 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="G24" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24" s="7">
         <v>1000</v>
@@ -3166,19 +3393,21 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="G25" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7">
         <v>65535</v>
@@ -3198,19 +3427,21 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="G26" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -3228,19 +3459,21 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="G27" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -3258,19 +3491,21 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>195</v>
+      </c>
       <c r="G28" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="7">
         <v>65535</v>
@@ -3290,19 +3525,21 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="G29" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" s="7">
         <v>65535</v>
@@ -3322,19 +3559,21 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="G30" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -3352,19 +3591,21 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="G31" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -3382,19 +3623,21 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="G32" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K32" s="7">
         <v>65535</v>
@@ -3414,19 +3657,21 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="G33" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K33" s="7">
         <v>65535</v>
@@ -3446,19 +3691,21 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="G34" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -3476,19 +3723,21 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="G35" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -3506,19 +3755,21 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="G36" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" s="7">
         <v>65535</v>
@@ -3538,19 +3789,21 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="G37" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K37" s="7">
         <v>65535</v>
@@ -3570,19 +3823,21 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="G38" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -3600,19 +3855,21 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="G39" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -3630,19 +3887,21 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="G40" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K40" s="7">
         <v>65535</v>
@@ -3690,55 +3949,55 @@
       <c r="P42" s="27"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
+      <c r="A44" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
-      <c r="B45" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="34"/>
+      <c r="B45" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="35"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
       <c r="G45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="L45" s="38"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
+      <c r="K45" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="36"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="34"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
@@ -3748,43 +4007,43 @@
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
-      <c r="K46" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L46" s="38"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
+      <c r="K46" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L46" s="36"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
-      <c r="B47" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="34"/>
+      <c r="B47" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="35"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+        <v>94</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
@@ -3792,56 +4051,56 @@
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="38" t="s">
+      <c r="K48" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L48" s="38"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
-      <c r="B49" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
+      <c r="B49" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="15" t="s">
+      <c r="G50" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="H50" s="36"/>
+      <c r="I50" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J50" s="38"/>
+      <c r="J50" s="36"/>
       <c r="K50" s="39"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
@@ -3852,122 +4111,143 @@
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
+      <c r="A55" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33" t="s">
+      <c r="B56" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="33"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A42:P42"/>
@@ -3984,38 +4264,17 @@
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:P46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:P57"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4026,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97A99B4-5E16-4C7B-B79A-C298617C793E}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4050,89 +4309,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -4156,24 +4415,24 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4234,19 +4493,21 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="G8" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K8" s="7">
         <v>100</v>
@@ -4266,19 +4527,21 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="G9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K9" s="7">
         <v>200</v>
@@ -4298,19 +4561,21 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="G10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K10" s="7">
         <v>1000</v>
@@ -4430,55 +4695,55 @@
       <c r="P15" s="27"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="A17" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
-      <c r="B18" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="34"/>
+      <c r="B18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="35"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
+      <c r="K18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="36"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -4488,43 +4753,43 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
+      <c r="K19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
-      <c r="B20" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="34"/>
+      <c r="B20" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="35"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+        <v>94</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -4532,56 +4797,56 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
-      <c r="B22" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
+      <c r="B22" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="15" t="s">
+      <c r="G23" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="38"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
@@ -4592,122 +4857,143 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
+      <c r="A28" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
+      <c r="B29" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A15:P15"/>
@@ -4724,38 +5010,17 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4766,8 +5031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2576925-921B-4DEA-AAA0-B18DC0FB58D4}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4790,89 +5055,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -4896,24 +5161,24 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4973,22 +5238,24 @@
         <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K8" s="7">
         <v>100</v>
@@ -5008,19 +5275,21 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="G9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K9" s="7">
         <v>100</v>
@@ -5040,19 +5309,21 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="G10" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -5070,19 +5341,21 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="G11" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7">
         <v>200</v>
@@ -5102,19 +5375,21 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="43" t="s">
+        <v>216</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -5132,19 +5407,21 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="43" t="s">
+        <v>217</v>
+      </c>
       <c r="G13" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K13" s="7">
         <v>200</v>
@@ -5164,19 +5441,21 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="43" t="s">
+        <v>218</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K14" s="7">
         <v>1000</v>
@@ -5196,19 +5475,21 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="43" t="s">
+        <v>219</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K15" s="7">
         <v>1000</v>
@@ -5228,19 +5509,21 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="43" t="s">
+        <v>220</v>
+      </c>
       <c r="G16" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7">
         <v>1000</v>
@@ -5260,19 +5543,21 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="43" t="s">
+        <v>214</v>
+      </c>
       <c r="G17" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7">
         <v>1000</v>
@@ -5292,19 +5577,21 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="43" t="s">
+        <v>221</v>
+      </c>
       <c r="G18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K18" s="7">
         <v>1000</v>
@@ -5324,19 +5611,21 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="43" t="s">
+        <v>211</v>
+      </c>
       <c r="G19" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K19" s="7">
         <v>2000</v>
@@ -5356,19 +5645,21 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="43" t="s">
+        <v>212</v>
+      </c>
       <c r="G20" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K20" s="7">
         <v>2000</v>
@@ -5416,55 +5707,55 @@
       <c r="P22" s="27"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
+      <c r="A24" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
-      <c r="B25" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="34"/>
+      <c r="B25" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="35"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+      <c r="K25" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="36"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -5474,43 +5765,43 @@
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
+      <c r="K26" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="36"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
-      <c r="B27" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="34"/>
+      <c r="B27" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="35"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
+        <v>94</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -5518,56 +5809,56 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="38" t="s">
+      <c r="K28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
-      <c r="B29" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
+      <c r="B29" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="15" t="s">
+      <c r="G30" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="H30" s="36"/>
+      <c r="I30" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="38"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
@@ -5578,122 +5869,143 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
+      <c r="A35" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
+      <c r="B36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
@@ -5710,38 +6022,17 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
